--- a/artfynd/A 46007-2018.xlsx
+++ b/artfynd/A 46007-2018.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>339165</v>
+        <v>897611</v>
       </c>
       <c r="B3" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516751.1639994275</v>
+        <v>516775.0969441532</v>
       </c>
       <c r="R3" t="n">
-        <v>7166398.725656669</v>
+        <v>7166964.742922864</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>410481</v>
+        <v>897610</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516655.3196462933</v>
+        <v>516882.0887008724</v>
       </c>
       <c r="R4" t="n">
-        <v>7166954.215884529</v>
+        <v>7166957.186042923</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>897611</v>
+        <v>897612</v>
       </c>
       <c r="B5" t="n">
         <v>78570</v>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516775.0969441532</v>
+        <v>516745.819622917</v>
       </c>
       <c r="R5" t="n">
-        <v>7166964.742922864</v>
+        <v>7166977.450622129</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>410482</v>
+        <v>339165</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516464.809540855</v>
+        <v>516751.1639994275</v>
       </c>
       <c r="R6" t="n">
-        <v>7166839.062662033</v>
+        <v>7166398.725656669</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>371366</v>
+        <v>410481</v>
       </c>
       <c r="B7" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>516812.203880421</v>
+        <v>516655.3196462933</v>
       </c>
       <c r="R7" t="n">
-        <v>7166314.536317643</v>
+        <v>7166954.215884529</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>897610</v>
+        <v>410482</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516882.0887008724</v>
+        <v>516464.809540855</v>
       </c>
       <c r="R8" t="n">
-        <v>7166957.186042923</v>
+        <v>7166839.062662033</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>897617</v>
+        <v>371366</v>
       </c>
       <c r="B9" t="n">
-        <v>78570</v>
+        <v>89406</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>516702.0504959362</v>
+        <v>516812.203880421</v>
       </c>
       <c r="R9" t="n">
-        <v>7166658.028381014</v>
+        <v>7166314.536317643</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1608,7 +1608,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>897605</v>
+        <v>897617</v>
       </c>
       <c r="B10" t="n">
         <v>78570</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516919.2426086541</v>
+        <v>516702.0504959362</v>
       </c>
       <c r="R10" t="n">
-        <v>7166302.688316058</v>
+        <v>7166658.028381014</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>362008</v>
+        <v>897605</v>
       </c>
       <c r="B11" t="n">
-        <v>81236</v>
+        <v>78570</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516501.8952833635</v>
+        <v>516919.2426086541</v>
       </c>
       <c r="R11" t="n">
-        <v>7166970.107393447</v>
+        <v>7166302.688316058</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>371368</v>
+        <v>362008</v>
       </c>
       <c r="B12" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516643.2605385027</v>
+        <v>516501.8952833635</v>
       </c>
       <c r="R12" t="n">
-        <v>7166960.155476599</v>
+        <v>7166970.107393447</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2355835</v>
+        <v>371368</v>
       </c>
       <c r="B13" t="n">
-        <v>96660</v>
+        <v>89406</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1968,25 +1968,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219880</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516739.2303865827</v>
+        <v>516643.2605385027</v>
       </c>
       <c r="R13" t="n">
-        <v>7166381.497087232</v>
+        <v>7166960.155476599</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>897614</v>
+        <v>2355835</v>
       </c>
       <c r="B14" t="n">
-        <v>78570</v>
+        <v>96660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>219880</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516574.0552766696</v>
+        <v>516739.2303865827</v>
       </c>
       <c r="R14" t="n">
-        <v>7166734.12126423</v>
+        <v>7166381.497087232</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2188,7 +2188,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>897606</v>
+        <v>897614</v>
       </c>
       <c r="B15" t="n">
         <v>78570</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>516812.1610656394</v>
+        <v>516574.0552766696</v>
       </c>
       <c r="R15" t="n">
-        <v>7166322.259468229</v>
+        <v>7166734.12126423</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>897618</v>
+        <v>897606</v>
       </c>
       <c r="B16" t="n">
         <v>78570</v>
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>516829.4792433577</v>
+        <v>516812.1610656394</v>
       </c>
       <c r="R16" t="n">
-        <v>7166762.556224426</v>
+        <v>7166322.259468229</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2420,7 +2420,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>897607</v>
+        <v>897618</v>
       </c>
       <c r="B17" t="n">
         <v>78570</v>
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>516554.5978317424</v>
+        <v>516829.4792433577</v>
       </c>
       <c r="R17" t="n">
-        <v>7166600.158405255</v>
+        <v>7166762.556224426</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2012-06-27</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>897612</v>
+        <v>897607</v>
       </c>
       <c r="B18" t="n">
         <v>78570</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>516745.819622917</v>
+        <v>516554.5978317424</v>
       </c>
       <c r="R18" t="n">
-        <v>7166977.450622129</v>
+        <v>7166600.158405255</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2012-06-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
